--- a/25th June Batch/Class 29.01.2023 - T Test.xlsx
+++ b/25th June Batch/Class 29.01.2023 - T Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th June Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE750B73-CB16-4127-8A13-8BE4E97CF0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED14E8-AD2B-4164-873A-7A4AF0FB5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Independent Variable - Marks in Maths - (x1)</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>n1,n2</t>
+  </si>
+  <si>
+    <t>(mean of x1 - mean of x2/stdev)*sqrt((n1*n2/(n1+n2))</t>
+  </si>
+  <si>
+    <t>accepting Null hypothesis</t>
+  </si>
+  <si>
+    <t>accpting alternate hypthesis</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,10 +166,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:I19"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +465,37 @@
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.88</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -472,10 +509,10 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -686,11 +723,11 @@
       <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>SUM(H8:H15)</f>
         <v>283.5</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f>SUM(I8:I15)</f>
         <v>158</v>
       </c>
